--- a/www/IndicatorsPerCountry/Malaysia_TotalGrossCentralGovernmentDebtasaPercentageofGDP_TerritorialRef_1965_2012_CCode_458.xlsx
+++ b/www/IndicatorsPerCountry/Malaysia_TotalGrossCentralGovernmentDebtasaPercentageofGDP_TerritorialRef_1965_2012_CCode_458.xlsx
@@ -216,13 +216,13 @@
     <t>Verriet, Jon and Reinoud Bosch (2015). Total Gross Central Government Debt as a Percentage of GDP. http://hdl.handle.net/10622/YXFPRL, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_YXFPRL.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_YXFPRL.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_YXFPRL.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_YXFPRL.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_YXFPRL.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_YXFPRL.bib</t>
   </si>
 </sst>
 </file>
